--- a/input/汇总_预置资源.xlsx
+++ b/input/汇总_预置资源.xlsx
@@ -339,6 +339,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1">
@@ -355,6 +356,11 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>图片</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>链接</t>
         </is>
       </c>
     </row>
@@ -376,6 +382,7 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/2219202947442/O1CN01K9902U24qUd1Jl87q_!!4611686018427382130-0-xy_item.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/2219202947442/O1CN01K9902U24qUd1Jl87q_!!4611686018427382130-0-xy_item.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/2219202947442/O1CN01K9902U24qUd1Jl87q_!!4611686018427382130-0-xy_item.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="25.5" customHeight="1">
       <c r="A3">
@@ -421,6 +428,7 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/1732655361/O1CN01unLIqv1pTOPuiW3ep_!!4611686018427386113-0-xy_item.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/1732655361/O1CN01unLIqv1pTOPuiW3ep_!!4611686018427386113-0-xy_item.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/1732655361/O1CN01unLIqv1pTOPuiW3ep_!!4611686018427386113-0-xy_item.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4">
@@ -443,6 +451,7 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i1/O1CN01GoRlal1zbJMvhYkYa_!!4611686018427384060-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i1/O1CN01GoRlal1zbJMvhYkYa_!!4611686018427384060-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i1/O1CN01GoRlal1zbJMvhYkYa_!!4611686018427384060-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5">
@@ -465,6 +474,7 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i1/O1CN01FpvIab26jjzdIFUfX_!!4611686018427387058-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i1/O1CN01FpvIab26jjzdIFUfX_!!4611686018427387058-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i1/O1CN01FpvIab26jjzdIFUfX_!!4611686018427387058-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" ht="25.5" customHeight="1">
       <c r="A6">
@@ -502,6 +512,7 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i3/O1CN01vLz6cV2JnU9eV6oKs_!!0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i3/O1CN01vLz6cV2JnU9eV6oKs_!!0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i3/O1CN01vLz6cV2JnU9eV6oKs_!!0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7">
@@ -529,6 +540,7 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01m22qEs1lijAkrIAnt_!!4611686018427384645-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01m22qEs1lijAkrIAnt_!!4611686018427384645-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01m22qEs1lijAkrIAnt_!!4611686018427384645-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" ht="25.5" customHeight="1">
       <c r="A8">
@@ -564,6 +576,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01IAjcpA1U0RPdTUXmq_!!4611686018427386903-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01IAjcpA1U0RPdTUXmq_!!4611686018427386903-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01IAjcpA1U0RPdTUXmq_!!4611686018427386903-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D8" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=948726934630&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=948726934630&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=948726934630&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9">
@@ -590,6 +606,10 @@
       <c r="C9" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i1/O1CN01eOIf1s2EIjZp6SeEI_!!4611686018427385506-53-fleamarket.heic_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i1/O1CN01eOIf1s2EIjZp6SeEI_!!4611686018427385506-53-fleamarket.heic_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i1/O1CN01eOIf1s2EIjZp6SeEI_!!4611686018427385506-53-fleamarket.heic_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.26.1b377e61Ma7Ms3&amp;id=977151259449&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.26.1b377e61Ma7Ms3&amp;id=977151259449&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.26.1b377e61Ma7Ms3&amp;id=977151259449&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -627,6 +647,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/3408357231/O1CN01U9A4VL23Hr3Y0jyK0_!!4611686018427381615-0-xy_item.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/3408357231/O1CN01U9A4VL23Hr3Y0jyK0_!!4611686018427381615-0-xy_item.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/3408357231/O1CN01U9A4VL23Hr3Y0jyK0_!!4611686018427381615-0-xy_item.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D10" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.10.1b377e61Ma7Ms3&amp;id=993356819001&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.10.1b377e61Ma7Ms3&amp;id=993356819001&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.10.1b377e61Ma7Ms3&amp;id=993356819001&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11">
@@ -643,6 +667,10 @@
       <c r="C11" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01MPDI8822gkvuH9DtD_!!4611686018427385278-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01MPDI8822gkvuH9DtD_!!4611686018427385278-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01MPDI8822gkvuH9DtD_!!4611686018427385278-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.29.1b377e61Ma7Ms3&amp;id=937046458029&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.29.1b377e61Ma7Ms3&amp;id=937046458029&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.29.1b377e61Ma7Ms3&amp;id=937046458029&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -663,6 +691,10 @@
       <c r="C12" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i1/O1CN01C9pSWT1Kgtx4TD0wi_!!4611686018427380330-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i1/O1CN01C9pSWT1Kgtx4TD0wi_!!4611686018427380330-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i1/O1CN01C9pSWT1Kgtx4TD0wi_!!4611686018427380330-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=903850991084&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=903850991084&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=903850991084&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -687,6 +719,10 @@
       <c r="C13" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i3/O1CN01qe8hFN29PXLyXHCQD_!!4611686018427385676-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i3/O1CN01qe8hFN29PXLyXHCQD_!!4611686018427385676-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i3/O1CN01qe8hFN29PXLyXHCQD_!!4611686018427385676-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.28.1b377e61Ma7Ms3&amp;id=939071072800&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.28.1b377e61Ma7Ms3&amp;id=939071072800&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.28.1b377e61Ma7Ms3&amp;id=939071072800&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -714,6 +750,10 @@
       <c r="C14" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/O1CN01sEDqHb2EK6kMmoWi4_!!4611686018427380485-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/O1CN01sEDqHb2EK6kMmoWi4_!!4611686018427380485-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/O1CN01sEDqHb2EK6kMmoWi4_!!4611686018427380485-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.8.1b377e61Ma7Ms3&amp;id=946001438110&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.8.1b377e61Ma7Ms3&amp;id=946001438110&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.8.1b377e61Ma7Ms3&amp;id=946001438110&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -744,6 +784,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/O1CN01Czbgnb1RcxutKvZjZ_!!4611686018427380133-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/O1CN01Czbgnb1RcxutKvZjZ_!!4611686018427380133-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/O1CN01Czbgnb1RcxutKvZjZ_!!4611686018427380133-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D15" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.27.1b377e61Ma7Ms3&amp;id=857227411020&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.27.1b377e61Ma7Ms3&amp;id=857227411020&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.27.1b377e61Ma7Ms3&amp;id=857227411020&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16">
@@ -769,6 +813,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01Iz9Xxm1XV4lmU929S_!!4611686018427380176-53-fleamarket.heic_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01Iz9Xxm1XV4lmU929S_!!4611686018427380176-53-fleamarket.heic_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01Iz9Xxm1XV4lmU929S_!!4611686018427380176-53-fleamarket.heic_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D16" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.17.1b377e61Ma7Ms3&amp;id=975519024031&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.17.1b377e61Ma7Ms3&amp;id=975519024031&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.17.1b377e61Ma7Ms3&amp;id=975519024031&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="A17">
@@ -790,6 +838,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/O1CN01PSr6AZ1WMXeruIeiu_!!0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/O1CN01PSr6AZ1WMXeruIeiu_!!0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/O1CN01PSr6AZ1WMXeruIeiu_!!0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D17" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=807129218718&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=807129218718&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=807129218718&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
       <c r="A18">
@@ -811,6 +863,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01WhNlX61MCKjVEzdC0_!!4611686018427382374-53-fleamarket.heic_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01WhNlX61MCKjVEzdC0_!!4611686018427382374-53-fleamarket.heic_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01WhNlX61MCKjVEzdC0_!!4611686018427382374-53-fleamarket.heic_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D18" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.15.1b377e61Ma7Ms3&amp;id=948092826007&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.15.1b377e61Ma7Ms3&amp;id=948092826007&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.15.1b377e61Ma7Ms3&amp;id=948092826007&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19">
@@ -829,6 +885,10 @@
       <c r="C19" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01J5ejnk2KKv8sKdusi_!!4611686018427387555-53-fleamarket.heic_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01J5ejnk2KKv8sKdusi_!!4611686018427387555-53-fleamarket.heic_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01J5ejnk2KKv8sKdusi_!!4611686018427387555-53-fleamarket.heic_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.7.1b377e61Ma7Ms3&amp;id=999178498819&amp;categoryId=201460510", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.7.1b377e61Ma7Ms3&amp;id=999178498819&amp;categoryId=201460510")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.7.1b377e61Ma7Ms3&amp;id=999178498819&amp;categoryId=201460510</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -853,6 +913,10 @@
       <c r="C20" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01BQCkTH1dcl6himpqe_!!4611686018427382637-53-fleamarket.heic_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01BQCkTH1dcl6himpqe_!!4611686018427382637-53-fleamarket.heic_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01BQCkTH1dcl6himpqe_!!4611686018427382637-53-fleamarket.heic_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=973706589536&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=973706589536&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=973706589536&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -882,6 +946,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01jwt8Fo2G0X2plNJAN_!!4611686018427381593-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01jwt8Fo2G0X2plNJAN_!!4611686018427381593-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01jwt8Fo2G0X2plNJAN_!!4611686018427381593-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D21" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=945296404459&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=945296404459&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=945296404459&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22">
@@ -903,6 +971,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/O1CN014SSFGI2JBvkNJlebQ_!!4611686018427386760-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/O1CN014SSFGI2JBvkNJlebQ_!!4611686018427386760-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/O1CN014SSFGI2JBvkNJlebQ_!!4611686018427386760-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D22" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=941464310692&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=941464310692&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=941464310692&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23">
@@ -919,6 +991,10 @@
       <c r="C23" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01lYbcAp1n4XgnbSNrB_!!4611686018427380556-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01lYbcAp1n4XgnbSNrB_!!4611686018427380556-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01lYbcAp1n4XgnbSNrB_!!4611686018427380556-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=991304162422&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=991304162422&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=991304162422&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -949,6 +1025,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/O1CN01sDL8ym2K1E84FFNj7_!!4611686018427386056-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/O1CN01sDL8ym2K1E84FFNj7_!!4611686018427386056-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/O1CN01sDL8ym2K1E84FFNj7_!!4611686018427386056-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D24" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=974278541118&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=974278541118&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=974278541118&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
       <c r="A25">
@@ -966,6 +1046,10 @@
       <c r="C25" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/O1CN01cZnkyT1ZuqGfzWFgv_!!4611686018427383943-53-fleamarket.heic_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/O1CN01cZnkyT1ZuqGfzWFgv_!!4611686018427383943-53-fleamarket.heic_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/O1CN01cZnkyT1ZuqGfzWFgv_!!4611686018427383943-53-fleamarket.heic_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=953373572384&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=953373572384&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=953373572384&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -986,6 +1070,10 @@
       <c r="C26" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01l4QwAz1wFNZU4tTBb_!!4611686018427382502-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01l4QwAz1wFNZU4tTBb_!!4611686018427382502-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01l4QwAz1wFNZU4tTBb_!!4611686018427382502-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=947259655001&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=947259655001&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=947259655001&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1014,6 +1102,10 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i4/O1CN01jwXvXb2Kw1GICKvHj_!!4611686018427386580-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i4/O1CN01jwXvXb2Kw1GICKvHj_!!4611686018427386580-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i4/O1CN01jwXvXb2Kw1GICKvHj_!!4611686018427386580-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D27" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=1002329045198&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=1002329045198&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=1002329045198&amp;categoryId=202036301</v>
+      </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
       <c r="A28">
@@ -1033,6 +1125,10 @@
       <c r="C28" s="2" t="str">
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i3/O1CN01gt0E3U2L9l6nysNUy_!!4611686018427380306-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i3/O1CN01gt0E3U2L9l6nysNUy_!!4611686018427380306-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i3/O1CN01gt0E3U2L9l6nysNUy_!!4611686018427380306-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.13.1b377e61Ma7Ms3&amp;id=953038530018&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.13.1b377e61Ma7Ms3&amp;id=953038530018&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.13.1b377e61Ma7Ms3&amp;id=953038530018&amp;categoryId=202036301</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1059,6 +1155,22 @@
         <f>=HYPERLINK("http://img.alicdn.com/bao/uploaded/i2/O1CN01bO1Uby23XQWFiOyU0_!!4611686018427379761-0-fleamarket.jpg_790x10000Q90.jpg_.webp", "img.alicdn.com/bao/uploaded/i2/O1CN01bO1Uby23XQWFiOyU0_!!4611686018427379761-0-fleamarket.jpg_790x10000Q90.jpg_.webp")</f>
         <v>img.alicdn.com/bao/uploaded/i2/O1CN01bO1Uby23XQWFiOyU0_!!4611686018427379761-0-fleamarket.jpg_790x10000Q90.jpg_.webp</v>
       </c>
+      <c r="D29" s="2" t="str">
+        <f>=HYPERLINK("https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.20.1b377e61Ma7Ms3&amp;id=989632758919&amp;categoryId=202036301", "https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.20.1b377e61Ma7Ms3&amp;id=989632758919&amp;categoryId=202036301")</f>
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.20.1b377e61Ma7Ms3&amp;id=989632758919&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
   </sheetData>
 </worksheet>
